--- a/biz-service/src/main/resources/importer/template.xlsx
+++ b/biz-service/src/main/resources/importer/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\singhand\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\singhand\IdeaProjects\graph-service\biz-service\src\main\resources\importer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32350224-6A40-4204-BA8A-3416608A38CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E782FD53-9DCD-493F-B59F-BE0A87FA82BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35685" yWindow="2805" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="装备-属性" sheetId="1" r:id="rId1"/>
@@ -51,27 +51,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主语节点名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主语节点类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宾语节点名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宾语节点类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>别名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>英文名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主语实体名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主语实体类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宾语实体名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宾语实体类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +402,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -445,7 +445,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -458,24 +458,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>